--- a/public/downloads/Template Files/Cheque List Report Result.xlsx
+++ b/public/downloads/Template Files/Cheque List Report Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785496C4-2215-4BE8-88C6-4B50C25490BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD737E-ACCE-41BF-825F-5C552A60408E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3157,9 +3157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
